--- a/2019_appstore_games.xlsx
+++ b/2019_appstore_games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\COM201\02_databases\91892-database-practice-hsiaoy71950\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED8DE26-7718-48A4-AE15-F49E0A4E38C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0DE3A8-FAB1-42BD-8C1B-E032537C746A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14475" yWindow="675" windowWidth="13155" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23278,8 +23278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1079AF86-4362-4D38-9816-718B8709681E}">
   <dimension ref="A1:Q243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="UWU2" sqref="UWU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23324,10 +23324,6 @@
       <c r="J1" t="str">
         <f>Game_data!J1</f>
         <v>DeveloperID</v>
-      </c>
-      <c r="K1" t="str">
-        <f>Game_data!K1</f>
-        <v>Developer</v>
       </c>
       <c r="L1" t="str">
         <f>Game_data!L1</f>
